--- a/angariações 2025 Macro.xlsx
+++ b/angariações 2025 Macro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Fontainhas\Desktop\Ranking\Dashboard_EasyGest_2025_CORRIGIDO_FINAL_OK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Fontainhas\Desktop\Ranking\dashboard_easygest_AUTOMATICO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F288F15B-3FDE-40DC-A7F2-2E5E1E4B029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B307FC-4988-4F3B-9BA2-EBCFC1EDB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C3CAB2-813F-4B41-8088-C2DE14EDF36A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$A$1:$Z$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5733" uniqueCount="1899">
   <si>
     <t>Semana</t>
   </si>
@@ -4759,12 +4759,6 @@
   </si>
   <si>
     <t>280000</t>
-  </si>
-  <si>
-    <t>LX97067NM</t>
-  </si>
-  <si>
-    <t>CMI0052</t>
   </si>
   <si>
     <t>165000</t>
@@ -6229,10 +6223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C4B36F-592F-4EDD-9D58-1421084A8719}">
-  <dimension ref="A1:Z351"/>
+  <dimension ref="A1:Z350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N319" workbookViewId="0">
-      <selection activeCell="A328" sqref="A328:Z351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22077,11 +22071,11 @@
     </row>
     <row r="259" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B259">
-        <f t="shared" ref="B259:B322" si="8">YEAR(S259)</f>
+        <f t="shared" ref="B259:B321" si="8">YEAR(S259)</f>
         <v>2025</v>
       </c>
       <c r="C259">
-        <f t="shared" ref="C259:C322" si="9">MONTH(S259)</f>
+        <f t="shared" ref="C259:C321" si="9">MONTH(S259)</f>
         <v>3</v>
       </c>
       <c r="F259" t="s">
@@ -22607,40 +22601,40 @@
         <v>4</v>
       </c>
       <c r="F268" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="G268" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="H268" t="s">
-        <v>1575</v>
+        <v>1349</v>
       </c>
       <c r="I268" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="J268" t="s">
-        <v>780</v>
+        <v>1110</v>
       </c>
       <c r="K268" t="s">
-        <v>1576</v>
+        <v>1111</v>
       </c>
       <c r="L268" t="s">
-        <v>257</v>
+        <v>1577</v>
       </c>
       <c r="M268" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N268" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O268" t="s">
-        <v>1093</v>
+        <v>1113</v>
       </c>
       <c r="P268" t="s">
-        <v>1094</v>
+        <v>1114</v>
       </c>
       <c r="Q268" s="10" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="R268" t="s">
         <v>62</v>
@@ -22665,43 +22659,43 @@
         <v>4</v>
       </c>
       <c r="F269" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="G269" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H269" t="s">
-        <v>1349</v>
+        <v>1580</v>
       </c>
       <c r="I269" t="s">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="J269" t="s">
-        <v>1110</v>
+        <v>46</v>
       </c>
       <c r="K269" t="s">
-        <v>1111</v>
+        <v>46</v>
       </c>
       <c r="L269" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="M269" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N269" t="s">
         <v>34</v>
       </c>
       <c r="O269" t="s">
-        <v>1113</v>
-      </c>
-      <c r="P269" t="s">
-        <v>1114</v>
+        <v>265</v>
+      </c>
+      <c r="P269" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="Q269" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="R269" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="R269" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S269" t="s">
         <v>1569</v>
@@ -22710,7 +22704,7 @@
         <v>39</v>
       </c>
       <c r="Z269" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="270" spans="2:26" x14ac:dyDescent="0.25">
@@ -22723,40 +22717,40 @@
         <v>4</v>
       </c>
       <c r="F270" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="G270" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="H270" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="I270" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="J270" t="s">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="K270" t="s">
-        <v>46</v>
+        <v>656</v>
       </c>
       <c r="L270" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="M270" t="s">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="N270" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O270" t="s">
-        <v>265</v>
+        <v>486</v>
       </c>
       <c r="P270" s="10" t="s">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="Q270" s="10" t="s">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="R270" s="10" t="s">
         <v>37</v>
@@ -22781,49 +22775,49 @@
         <v>4</v>
       </c>
       <c r="F271" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="G271" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="H271" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="I271" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="J271" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="K271" t="s">
-        <v>656</v>
+        <v>1589</v>
       </c>
       <c r="L271" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="M271" t="s">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="N271" t="s">
-        <v>142</v>
-      </c>
-      <c r="O271" t="s">
-        <v>486</v>
+        <v>34</v>
+      </c>
+      <c r="O271" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="P271" s="10" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="Q271" s="10" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="R271" s="10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S271" t="s">
         <v>1569</v>
       </c>
       <c r="U271" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="Z271" t="s">
         <v>41</v>
@@ -22839,13 +22833,13 @@
         <v>4</v>
       </c>
       <c r="F272" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="G272" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="H272" t="s">
-        <v>1590</v>
+        <v>28</v>
       </c>
       <c r="I272" t="s">
         <v>72</v>
@@ -22854,25 +22848,25 @@
         <v>73</v>
       </c>
       <c r="K272" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="L272" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="M272" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N272" t="s">
         <v>34</v>
       </c>
-      <c r="O272" s="10" t="s">
-        <v>106</v>
+      <c r="O272" t="s">
+        <v>233</v>
       </c>
       <c r="P272" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q272" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R272" s="10" t="s">
         <v>78</v>
@@ -22881,7 +22875,7 @@
         <v>1569</v>
       </c>
       <c r="U272" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="Z272" t="s">
         <v>41</v>
@@ -22897,52 +22891,52 @@
         <v>4</v>
       </c>
       <c r="F273" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="G273" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="H273" t="s">
-        <v>28</v>
+        <v>1597</v>
       </c>
       <c r="I273" t="s">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="J273" t="s">
-        <v>73</v>
+        <v>1598</v>
       </c>
       <c r="K273" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="L273" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="M273" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="N273" t="s">
         <v>34</v>
       </c>
       <c r="O273" t="s">
-        <v>233</v>
-      </c>
-      <c r="P273" s="10" t="s">
-        <v>77</v>
+        <v>1024</v>
+      </c>
+      <c r="P273" t="s">
+        <v>1025</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R273" s="10" t="s">
-        <v>78</v>
+        <v>365</v>
+      </c>
+      <c r="R273" t="s">
+        <v>62</v>
       </c>
       <c r="S273" t="s">
-        <v>1569</v>
+        <v>1601</v>
       </c>
       <c r="U273" t="s">
         <v>39</v>
       </c>
       <c r="Z273" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="274" spans="2:26" x14ac:dyDescent="0.25">
@@ -22955,25 +22949,25 @@
         <v>4</v>
       </c>
       <c r="F274" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="G274" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="H274" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="I274" t="s">
         <v>321</v>
       </c>
       <c r="J274" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="K274" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="L274" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="M274" t="s">
         <v>152</v>
@@ -22994,7 +22988,7 @@
         <v>62</v>
       </c>
       <c r="S274" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="U274" t="s">
         <v>39</v>
@@ -23013,52 +23007,52 @@
         <v>4</v>
       </c>
       <c r="F275" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="G275" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="H275" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="I275" t="s">
-        <v>321</v>
+        <v>443</v>
       </c>
       <c r="J275" t="s">
-        <v>1600</v>
+        <v>56</v>
       </c>
       <c r="K275" t="s">
-        <v>1601</v>
+        <v>56</v>
       </c>
       <c r="L275" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="M275" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="N275" t="s">
         <v>34</v>
       </c>
       <c r="O275" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P275" t="s">
-        <v>1025</v>
+        <v>612</v>
+      </c>
+      <c r="P275" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="R275" t="s">
+        <v>56</v>
+      </c>
+      <c r="R275" s="10" t="s">
         <v>62</v>
       </c>
       <c r="S275" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="U275" t="s">
         <v>39</v>
       </c>
       <c r="Z275" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="2:26" x14ac:dyDescent="0.25">
@@ -23071,52 +23065,52 @@
         <v>4</v>
       </c>
       <c r="F276" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="G276" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="H276" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="I276" t="s">
-        <v>443</v>
+        <v>321</v>
       </c>
       <c r="J276" t="s">
-        <v>56</v>
+        <v>1598</v>
       </c>
       <c r="K276" t="s">
-        <v>56</v>
+        <v>1599</v>
       </c>
       <c r="L276" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="M276" t="s">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="N276" t="s">
         <v>34</v>
       </c>
       <c r="O276" t="s">
-        <v>612</v>
-      </c>
-      <c r="P276" s="10" t="s">
-        <v>61</v>
+        <v>1024</v>
+      </c>
+      <c r="P276" t="s">
+        <v>1025</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R276" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="R276" t="s">
         <v>62</v>
       </c>
       <c r="S276" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="U276" t="s">
         <v>39</v>
       </c>
       <c r="Z276" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="277" spans="2:26" x14ac:dyDescent="0.25">
@@ -23129,46 +23123,46 @@
         <v>4</v>
       </c>
       <c r="F277" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="G277" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H277" t="s">
-        <v>1614</v>
+        <v>985</v>
       </c>
       <c r="I277" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="J277" t="s">
-        <v>1600</v>
+        <v>73</v>
       </c>
       <c r="K277" t="s">
-        <v>1601</v>
+        <v>74</v>
       </c>
       <c r="L277" t="s">
-        <v>1607</v>
+        <v>1272</v>
       </c>
       <c r="M277" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N277" t="s">
         <v>34</v>
       </c>
       <c r="O277" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P277" t="s">
-        <v>1025</v>
+        <v>76</v>
+      </c>
+      <c r="P277" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="R277" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="R277" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="S277" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="U277" t="s">
         <v>39</v>
@@ -23193,19 +23187,19 @@
         <v>1616</v>
       </c>
       <c r="H278" t="s">
-        <v>985</v>
+        <v>1349</v>
       </c>
       <c r="I278" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J278" t="s">
-        <v>73</v>
+        <v>508</v>
       </c>
       <c r="K278" t="s">
-        <v>74</v>
+        <v>668</v>
       </c>
       <c r="L278" t="s">
-        <v>1272</v>
+        <v>1617</v>
       </c>
       <c r="M278" t="s">
         <v>33</v>
@@ -23214,19 +23208,19 @@
         <v>34</v>
       </c>
       <c r="O278" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="P278" s="10" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="R278" s="10" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S278" t="s">
-        <v>1603</v>
+        <v>1618</v>
       </c>
       <c r="U278" t="s">
         <v>39</v>
@@ -23245,25 +23239,25 @@
         <v>4</v>
       </c>
       <c r="F279" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="G279" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="H279" t="s">
-        <v>1349</v>
+        <v>1621</v>
       </c>
       <c r="I279" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J279" t="s">
-        <v>508</v>
+        <v>1622</v>
       </c>
       <c r="K279" t="s">
-        <v>668</v>
+        <v>1622</v>
       </c>
       <c r="L279" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="M279" t="s">
         <v>33</v>
@@ -23272,25 +23266,25 @@
         <v>34</v>
       </c>
       <c r="O279" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="P279" s="10" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="R279" s="10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S279" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="U279" t="s">
         <v>39</v>
       </c>
       <c r="Z279" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280" spans="2:26" x14ac:dyDescent="0.25">
@@ -23303,25 +23297,25 @@
         <v>4</v>
       </c>
       <c r="F280" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="G280" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="H280" t="s">
-        <v>1623</v>
+        <v>482</v>
       </c>
       <c r="I280" t="s">
         <v>72</v>
       </c>
       <c r="J280" t="s">
-        <v>1624</v>
+        <v>284</v>
       </c>
       <c r="K280" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="L280" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="M280" t="s">
         <v>33</v>
@@ -23330,19 +23324,19 @@
         <v>34</v>
       </c>
       <c r="O280" t="s">
-        <v>233</v>
+        <v>768</v>
       </c>
       <c r="P280" s="10" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="R280" s="10" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="S280" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="U280" t="s">
         <v>39</v>
@@ -23361,25 +23355,25 @@
         <v>4</v>
       </c>
       <c r="F281" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="G281" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="H281" t="s">
-        <v>482</v>
+        <v>1573</v>
       </c>
       <c r="I281" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J281" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="K281" t="s">
-        <v>1629</v>
+        <v>402</v>
       </c>
       <c r="L281" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="M281" t="s">
         <v>33</v>
@@ -23388,22 +23382,22 @@
         <v>34</v>
       </c>
       <c r="O281" t="s">
-        <v>768</v>
+        <v>233</v>
       </c>
       <c r="P281" s="10" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="R281" s="10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="S281" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="U281" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="Z281" t="s">
         <v>41</v>
@@ -23419,25 +23413,25 @@
         <v>4</v>
       </c>
       <c r="F282" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G282" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H282" t="s">
-        <v>1575</v>
+        <v>254</v>
       </c>
       <c r="I282" t="s">
-        <v>45</v>
+        <v>1635</v>
       </c>
       <c r="J282" t="s">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="K282" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="L282" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="M282" t="s">
         <v>33</v>
@@ -23446,25 +23440,25 @@
         <v>34</v>
       </c>
       <c r="O282" t="s">
-        <v>233</v>
+        <v>1637</v>
       </c>
       <c r="P282" s="10" t="s">
-        <v>77</v>
+        <v>1283</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>77</v>
+        <v>754</v>
       </c>
       <c r="R282" s="10" t="s">
-        <v>78</v>
+        <v>755</v>
       </c>
       <c r="S282" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="U282" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="Z282" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="283" spans="2:26" x14ac:dyDescent="0.25">
@@ -23477,25 +23471,25 @@
         <v>4</v>
       </c>
       <c r="F283" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="G283" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="H283" t="s">
-        <v>254</v>
+        <v>1640</v>
       </c>
       <c r="I283" t="s">
-        <v>1637</v>
+        <v>72</v>
       </c>
       <c r="J283" t="s">
-        <v>483</v>
+        <v>1598</v>
       </c>
       <c r="K283" t="s">
-        <v>484</v>
+        <v>1641</v>
       </c>
       <c r="L283" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="M283" t="s">
         <v>33</v>
@@ -23504,19 +23498,19 @@
         <v>34</v>
       </c>
       <c r="O283" t="s">
-        <v>1639</v>
-      </c>
-      <c r="P283" s="10" t="s">
-        <v>1283</v>
+        <v>1024</v>
+      </c>
+      <c r="P283" t="s">
+        <v>1025</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="R283" s="10" t="s">
-        <v>755</v>
+        <v>365</v>
+      </c>
+      <c r="R283" t="s">
+        <v>62</v>
       </c>
       <c r="S283" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="U283" t="s">
         <v>39</v>
@@ -23535,25 +23529,25 @@
         <v>4</v>
       </c>
       <c r="F284" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="G284" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="H284" t="s">
-        <v>1642</v>
+        <v>263</v>
       </c>
       <c r="I284" t="s">
-        <v>72</v>
+        <v>1645</v>
       </c>
       <c r="J284" t="s">
-        <v>1600</v>
+        <v>1017</v>
       </c>
       <c r="K284" t="s">
-        <v>1643</v>
+        <v>1017</v>
       </c>
       <c r="L284" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="M284" t="s">
         <v>33</v>
@@ -23562,25 +23556,25 @@
         <v>34</v>
       </c>
       <c r="O284" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P284" t="s">
-        <v>1025</v>
+        <v>733</v>
+      </c>
+      <c r="P284" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="R284" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="R284" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S284" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="U284" t="s">
         <v>39</v>
       </c>
       <c r="Z284" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" spans="2:26" x14ac:dyDescent="0.25">
@@ -23593,25 +23587,25 @@
         <v>4</v>
       </c>
       <c r="F285" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="G285" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="H285" t="s">
-        <v>263</v>
+        <v>1058</v>
       </c>
       <c r="I285" t="s">
-        <v>1647</v>
+        <v>45</v>
       </c>
       <c r="J285" t="s">
-        <v>1017</v>
+        <v>310</v>
       </c>
       <c r="K285" t="s">
-        <v>1017</v>
+        <v>1649</v>
       </c>
       <c r="L285" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="M285" t="s">
         <v>33</v>
@@ -23620,19 +23614,19 @@
         <v>34</v>
       </c>
       <c r="O285" t="s">
-        <v>733</v>
-      </c>
-      <c r="P285" s="10" t="s">
-        <v>49</v>
+        <v>1282</v>
+      </c>
+      <c r="P285" t="s">
+        <v>1283</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R285" s="10" t="s">
-        <v>37</v>
+        <v>754</v>
+      </c>
+      <c r="R285" t="s">
+        <v>755</v>
       </c>
       <c r="S285" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="U285" t="s">
         <v>39</v>
@@ -23651,46 +23645,46 @@
         <v>4</v>
       </c>
       <c r="F286" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="G286" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="H286" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="I286" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="J286" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="K286" t="s">
-        <v>1651</v>
+        <v>1140</v>
       </c>
       <c r="L286" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="M286" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N286" t="s">
         <v>34</v>
       </c>
       <c r="O286" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P286" t="s">
-        <v>1283</v>
+        <v>1142</v>
+      </c>
+      <c r="P286" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="R286" t="s">
-        <v>755</v>
+        <v>539</v>
+      </c>
+      <c r="R286" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S286" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="U286" t="s">
         <v>39</v>
@@ -23709,52 +23703,55 @@
         <v>4</v>
       </c>
       <c r="F287" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="G287" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H287" t="s">
-        <v>1069</v>
+        <v>969</v>
       </c>
       <c r="I287" t="s">
-        <v>401</v>
+        <v>72</v>
       </c>
       <c r="J287" t="s">
-        <v>386</v>
+        <v>111</v>
       </c>
       <c r="K287" t="s">
-        <v>1140</v>
+        <v>112</v>
       </c>
       <c r="L287" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="M287" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N287" t="s">
         <v>34</v>
       </c>
       <c r="O287" t="s">
-        <v>1142</v>
+        <v>381</v>
       </c>
       <c r="P287" s="10" t="s">
-        <v>539</v>
+        <v>112</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>539</v>
+        <v>112</v>
       </c>
       <c r="R287" s="10" t="s">
         <v>37</v>
       </c>
       <c r="S287" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="U287" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="W287" t="s">
+        <v>1487</v>
       </c>
       <c r="Z287" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="288" spans="2:26" x14ac:dyDescent="0.25">
@@ -23767,55 +23764,52 @@
         <v>4</v>
       </c>
       <c r="F288" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G288" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H288" t="s">
-        <v>969</v>
+        <v>1421</v>
       </c>
       <c r="I288" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J288" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="K288" t="s">
-        <v>112</v>
+        <v>1660</v>
       </c>
       <c r="L288" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="M288" t="s">
-        <v>33</v>
+        <v>595</v>
       </c>
       <c r="N288" t="s">
         <v>34</v>
       </c>
       <c r="O288" t="s">
-        <v>381</v>
-      </c>
-      <c r="P288" s="10" t="s">
-        <v>112</v>
+        <v>1170</v>
+      </c>
+      <c r="P288" t="s">
+        <v>589</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="R288" s="10" t="s">
-        <v>37</v>
+        <v>589</v>
+      </c>
+      <c r="R288" t="s">
+        <v>89</v>
       </c>
       <c r="S288" t="s">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="U288" t="s">
-        <v>133</v>
-      </c>
-      <c r="W288" t="s">
-        <v>1487</v>
+        <v>39</v>
       </c>
       <c r="Z288" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="289" spans="2:26" x14ac:dyDescent="0.25">
@@ -23828,46 +23822,46 @@
         <v>4</v>
       </c>
       <c r="F289" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="G289" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="H289" t="s">
-        <v>1421</v>
+        <v>1580</v>
       </c>
       <c r="I289" t="s">
         <v>45</v>
       </c>
       <c r="J289" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K289" t="s">
-        <v>1662</v>
+        <v>1136</v>
       </c>
       <c r="L289" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="M289" t="s">
-        <v>595</v>
+        <v>33</v>
       </c>
       <c r="N289" t="s">
         <v>34</v>
       </c>
       <c r="O289" t="s">
-        <v>1170</v>
-      </c>
-      <c r="P289" t="s">
-        <v>589</v>
+        <v>122</v>
+      </c>
+      <c r="P289" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="R289" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="R289" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S289" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="U289" t="s">
         <v>39</v>
@@ -23886,25 +23880,25 @@
         <v>4</v>
       </c>
       <c r="F290" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="G290" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H290" t="s">
-        <v>1582</v>
+        <v>1668</v>
       </c>
       <c r="I290" t="s">
         <v>45</v>
       </c>
       <c r="J290" t="s">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="K290" t="s">
-        <v>1136</v>
+        <v>371</v>
       </c>
       <c r="L290" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="M290" t="s">
         <v>33</v>
@@ -23913,25 +23907,25 @@
         <v>34</v>
       </c>
       <c r="O290" t="s">
-        <v>122</v>
-      </c>
-      <c r="P290" s="10" t="s">
-        <v>49</v>
+        <v>1362</v>
+      </c>
+      <c r="P290" t="s">
+        <v>1283</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R290" s="10" t="s">
-        <v>37</v>
+        <v>754</v>
+      </c>
+      <c r="R290" t="s">
+        <v>755</v>
       </c>
       <c r="S290" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="U290" t="s">
         <v>39</v>
       </c>
       <c r="Z290" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="2:26" x14ac:dyDescent="0.25">
@@ -23944,25 +23938,25 @@
         <v>4</v>
       </c>
       <c r="F291" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="G291" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="H291" t="s">
-        <v>1670</v>
+        <v>303</v>
       </c>
       <c r="I291" t="s">
         <v>45</v>
       </c>
       <c r="J291" t="s">
-        <v>371</v>
+        <v>1672</v>
       </c>
       <c r="K291" t="s">
-        <v>371</v>
+        <v>1673</v>
       </c>
       <c r="L291" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="M291" t="s">
         <v>33</v>
@@ -23971,19 +23965,19 @@
         <v>34</v>
       </c>
       <c r="O291" t="s">
-        <v>1362</v>
-      </c>
-      <c r="P291" t="s">
-        <v>1283</v>
+        <v>768</v>
+      </c>
+      <c r="P291" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="R291" t="s">
-        <v>755</v>
+        <v>289</v>
+      </c>
+      <c r="R291" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="S291" t="s">
-        <v>1664</v>
+        <v>1675</v>
       </c>
       <c r="U291" t="s">
         <v>39</v>
@@ -24002,25 +23996,25 @@
         <v>4</v>
       </c>
       <c r="F292" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="G292" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="H292" t="s">
-        <v>303</v>
+        <v>1241</v>
       </c>
       <c r="I292" t="s">
-        <v>45</v>
+        <v>1678</v>
       </c>
       <c r="J292" t="s">
-        <v>1674</v>
+        <v>1017</v>
       </c>
       <c r="K292" t="s">
-        <v>1675</v>
+        <v>1017</v>
       </c>
       <c r="L292" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="M292" t="s">
         <v>33</v>
@@ -24029,25 +24023,25 @@
         <v>34</v>
       </c>
       <c r="O292" t="s">
-        <v>768</v>
+        <v>265</v>
       </c>
       <c r="P292" s="10" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="R292" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="S292" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="U292" t="s">
         <v>39</v>
       </c>
       <c r="Z292" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="2:26" x14ac:dyDescent="0.25">
@@ -24060,52 +24054,52 @@
         <v>4</v>
       </c>
       <c r="F293" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="G293" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="H293" t="s">
-        <v>1241</v>
+        <v>1682</v>
       </c>
       <c r="I293" t="s">
-        <v>1680</v>
+        <v>321</v>
       </c>
       <c r="J293" t="s">
-        <v>1017</v>
+        <v>773</v>
       </c>
       <c r="K293" t="s">
-        <v>1017</v>
+        <v>773</v>
       </c>
       <c r="L293" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="M293" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="N293" t="s">
         <v>34</v>
       </c>
       <c r="O293" t="s">
-        <v>265</v>
-      </c>
-      <c r="P293" s="10" t="s">
-        <v>49</v>
+        <v>1024</v>
+      </c>
+      <c r="P293" t="s">
+        <v>1025</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R293" s="10" t="s">
-        <v>37</v>
+        <v>365</v>
+      </c>
+      <c r="R293" t="s">
+        <v>62</v>
       </c>
       <c r="S293" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="U293" t="s">
         <v>39</v>
       </c>
       <c r="Z293" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="294" spans="2:26" x14ac:dyDescent="0.25">
@@ -24118,52 +24112,52 @@
         <v>4</v>
       </c>
       <c r="F294" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="G294" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="H294" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="I294" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="J294" t="s">
-        <v>773</v>
+        <v>77</v>
       </c>
       <c r="K294" t="s">
-        <v>773</v>
+        <v>402</v>
       </c>
       <c r="L294" t="s">
-        <v>1685</v>
+        <v>1568</v>
       </c>
       <c r="M294" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N294" t="s">
         <v>34</v>
       </c>
       <c r="O294" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P294" t="s">
-        <v>1025</v>
+        <v>277</v>
+      </c>
+      <c r="P294" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="R294" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="R294" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="S294" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="U294" t="s">
         <v>39</v>
       </c>
       <c r="Z294" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="2:26" x14ac:dyDescent="0.25">
@@ -24176,46 +24170,46 @@
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="G295" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H295" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="I295" t="s">
-        <v>72</v>
+        <v>921</v>
       </c>
       <c r="J295" t="s">
-        <v>77</v>
+        <v>870</v>
       </c>
       <c r="K295" t="s">
-        <v>402</v>
+        <v>870</v>
       </c>
       <c r="L295" t="s">
-        <v>1568</v>
+        <v>1690</v>
       </c>
       <c r="M295" t="s">
         <v>33</v>
       </c>
       <c r="N295" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O295" t="s">
-        <v>277</v>
+        <v>872</v>
       </c>
       <c r="P295" s="10" t="s">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="R295" s="10" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S295" t="s">
-        <v>1677</v>
+        <v>1691</v>
       </c>
       <c r="U295" t="s">
         <v>39</v>
@@ -24234,31 +24228,31 @@
         <v>4</v>
       </c>
       <c r="F296" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="G296" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="H296" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="I296" t="s">
-        <v>921</v>
+        <v>127</v>
       </c>
       <c r="J296" t="s">
         <v>870</v>
       </c>
       <c r="K296" t="s">
-        <v>870</v>
+        <v>1695</v>
       </c>
       <c r="L296" t="s">
-        <v>1692</v>
+        <v>1272</v>
       </c>
       <c r="M296" t="s">
         <v>33</v>
       </c>
       <c r="N296" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O296" t="s">
         <v>872</v>
@@ -24273,13 +24267,13 @@
         <v>37</v>
       </c>
       <c r="S296" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U296" t="s">
         <v>39</v>
       </c>
       <c r="Z296" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="297" spans="2:26" x14ac:dyDescent="0.25">
@@ -24292,13 +24286,13 @@
         <v>4</v>
       </c>
       <c r="F297" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="G297" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H297" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="I297" t="s">
         <v>127</v>
@@ -24307,7 +24301,7 @@
         <v>870</v>
       </c>
       <c r="K297" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="L297" t="s">
         <v>1272</v>
@@ -24331,7 +24325,7 @@
         <v>37</v>
       </c>
       <c r="S297" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U297" t="s">
         <v>39</v>
@@ -24350,13 +24344,13 @@
         <v>4</v>
       </c>
       <c r="F298" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="G298" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H298" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="I298" t="s">
         <v>127</v>
@@ -24365,7 +24359,7 @@
         <v>870</v>
       </c>
       <c r="K298" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="L298" t="s">
         <v>1272</v>
@@ -24389,7 +24383,7 @@
         <v>37</v>
       </c>
       <c r="S298" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U298" t="s">
         <v>39</v>
@@ -24414,40 +24408,40 @@
         <v>1702</v>
       </c>
       <c r="H299" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
       <c r="I299" t="s">
-        <v>127</v>
+        <v>1704</v>
       </c>
       <c r="J299" t="s">
-        <v>870</v>
+        <v>1705</v>
       </c>
       <c r="K299" t="s">
-        <v>1697</v>
+        <v>1706</v>
       </c>
       <c r="L299" t="s">
-        <v>1272</v>
+        <v>1707</v>
       </c>
       <c r="M299" t="s">
-        <v>33</v>
+        <v>1708</v>
       </c>
       <c r="N299" t="s">
         <v>34</v>
       </c>
       <c r="O299" t="s">
-        <v>872</v>
-      </c>
-      <c r="P299" s="10" t="s">
-        <v>412</v>
+        <v>1709</v>
+      </c>
+      <c r="P299" t="s">
+        <v>314</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="R299" s="10" t="s">
-        <v>37</v>
+        <v>315</v>
+      </c>
+      <c r="R299" t="s">
+        <v>62</v>
       </c>
       <c r="S299" t="s">
-        <v>1693</v>
+        <v>1710</v>
       </c>
       <c r="U299" t="s">
         <v>39</v>
@@ -24466,46 +24460,46 @@
         <v>4</v>
       </c>
       <c r="F300" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="G300" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="H300" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="I300" t="s">
-        <v>1706</v>
+        <v>72</v>
       </c>
       <c r="J300" t="s">
-        <v>1707</v>
+        <v>98</v>
       </c>
       <c r="K300" t="s">
-        <v>1708</v>
+        <v>1102</v>
       </c>
       <c r="L300" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="M300" t="s">
-        <v>1710</v>
+        <v>33</v>
       </c>
       <c r="N300" t="s">
         <v>34</v>
       </c>
       <c r="O300" t="s">
-        <v>1711</v>
-      </c>
-      <c r="P300" t="s">
-        <v>314</v>
+        <v>97</v>
+      </c>
+      <c r="P300" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="R300" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="R300" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S300" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="U300" t="s">
         <v>39</v>
@@ -24524,46 +24518,46 @@
         <v>4</v>
       </c>
       <c r="F301" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="G301" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="H301" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="I301" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J301" t="s">
-        <v>98</v>
+        <v>1719</v>
       </c>
       <c r="K301" t="s">
-        <v>1102</v>
+        <v>1720</v>
       </c>
       <c r="L301" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="M301" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="N301" t="s">
         <v>34</v>
       </c>
       <c r="O301" t="s">
-        <v>97</v>
-      </c>
-      <c r="P301" s="10" t="s">
-        <v>98</v>
+        <v>1709</v>
+      </c>
+      <c r="P301" t="s">
+        <v>314</v>
       </c>
       <c r="Q301" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R301" s="10" t="s">
-        <v>37</v>
+        <v>315</v>
+      </c>
+      <c r="R301" t="s">
+        <v>62</v>
       </c>
       <c r="S301" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="U301" t="s">
         <v>39</v>
@@ -24582,46 +24576,46 @@
         <v>4</v>
       </c>
       <c r="F302" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="G302" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="H302" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="I302" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="J302" t="s">
-        <v>1721</v>
+        <v>386</v>
       </c>
       <c r="K302" t="s">
-        <v>1722</v>
+        <v>387</v>
       </c>
       <c r="L302" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="M302" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N302" t="s">
         <v>34</v>
       </c>
       <c r="O302" t="s">
-        <v>1711</v>
-      </c>
-      <c r="P302" t="s">
-        <v>314</v>
+        <v>1726</v>
+      </c>
+      <c r="P302" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="R302" t="s">
-        <v>62</v>
+        <v>539</v>
+      </c>
+      <c r="R302" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S302" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="U302" t="s">
         <v>39</v>
@@ -24640,52 +24634,52 @@
         <v>4</v>
       </c>
       <c r="F303" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="G303" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="H303" t="s">
-        <v>1726</v>
+        <v>202</v>
       </c>
       <c r="I303" t="s">
-        <v>443</v>
+        <v>667</v>
       </c>
       <c r="J303" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="K303" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="L303" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="M303" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="N303" t="s">
         <v>34</v>
       </c>
       <c r="O303" t="s">
-        <v>1728</v>
-      </c>
-      <c r="P303" s="10" t="s">
-        <v>539</v>
+        <v>1362</v>
+      </c>
+      <c r="P303" t="s">
+        <v>1283</v>
       </c>
       <c r="Q303" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="R303" s="10" t="s">
-        <v>37</v>
+        <v>754</v>
+      </c>
+      <c r="R303" t="s">
+        <v>755</v>
       </c>
       <c r="S303" t="s">
-        <v>1717</v>
+        <v>1730</v>
       </c>
       <c r="U303" t="s">
         <v>39</v>
       </c>
       <c r="Z303" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="304" spans="2:26" x14ac:dyDescent="0.25">
@@ -24698,52 +24692,52 @@
         <v>4</v>
       </c>
       <c r="F304" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="G304" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="H304" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="I304" t="s">
-        <v>667</v>
+        <v>72</v>
       </c>
       <c r="J304" t="s">
-        <v>508</v>
+        <v>1672</v>
       </c>
       <c r="K304" t="s">
-        <v>509</v>
+        <v>1733</v>
       </c>
       <c r="L304" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="M304" t="s">
-        <v>355</v>
+        <v>595</v>
       </c>
       <c r="N304" t="s">
         <v>34</v>
       </c>
       <c r="O304" t="s">
-        <v>1362</v>
-      </c>
-      <c r="P304" t="s">
-        <v>1283</v>
+        <v>332</v>
+      </c>
+      <c r="P304" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="Q304" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="R304" t="s">
-        <v>755</v>
+        <v>289</v>
+      </c>
+      <c r="R304" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="S304" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="U304" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="Z304" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="305" spans="2:26" x14ac:dyDescent="0.25">
@@ -24756,52 +24750,52 @@
         <v>4</v>
       </c>
       <c r="F305" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="G305" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="H305" t="s">
-        <v>254</v>
+        <v>891</v>
       </c>
       <c r="I305" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J305" t="s">
-        <v>1674</v>
+        <v>386</v>
       </c>
       <c r="K305" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="L305" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="M305" t="s">
-        <v>595</v>
+        <v>59</v>
       </c>
       <c r="N305" t="s">
         <v>34</v>
       </c>
       <c r="O305" t="s">
-        <v>332</v>
+        <v>627</v>
       </c>
       <c r="P305" s="10" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="Q305" s="10" t="s">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="R305" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="S305" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="U305" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="Z305" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="306" spans="2:26" x14ac:dyDescent="0.25">
@@ -24814,46 +24808,46 @@
         <v>4</v>
       </c>
       <c r="F306" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="G306" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="H306" t="s">
-        <v>891</v>
+        <v>1742</v>
       </c>
       <c r="I306" t="s">
-        <v>29</v>
+        <v>491</v>
       </c>
       <c r="J306" t="s">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="K306" t="s">
-        <v>1739</v>
+        <v>231</v>
       </c>
       <c r="L306" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="M306" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N306" t="s">
         <v>34</v>
       </c>
       <c r="O306" t="s">
-        <v>627</v>
+        <v>233</v>
       </c>
       <c r="P306" s="10" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="Q306" s="10" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="R306" s="10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S306" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="U306" t="s">
         <v>39</v>
@@ -24872,49 +24866,52 @@
         <v>4</v>
       </c>
       <c r="F307" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="G307" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="H307" t="s">
-        <v>1744</v>
+        <v>189</v>
       </c>
       <c r="I307" t="s">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="J307" t="s">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="K307" t="s">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="L307" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="M307" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="N307" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="O307" t="s">
-        <v>233</v>
-      </c>
-      <c r="P307" s="10" t="s">
-        <v>77</v>
+        <v>1336</v>
+      </c>
+      <c r="P307" t="s">
+        <v>98</v>
       </c>
       <c r="Q307" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R307" s="10" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="R307" t="s">
+        <v>37</v>
       </c>
       <c r="S307" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="U307" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="W307" t="s">
+        <v>1487</v>
       </c>
       <c r="Z307" t="s">
         <v>41</v>
@@ -24930,55 +24927,52 @@
         <v>4</v>
       </c>
       <c r="F308" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="G308" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H308" t="s">
         <v>189</v>
       </c>
       <c r="I308" t="s">
-        <v>45</v>
+        <v>1528</v>
       </c>
       <c r="J308" t="s">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="K308" t="s">
-        <v>448</v>
+        <v>1271</v>
       </c>
       <c r="L308" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="M308" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N308" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="O308" t="s">
-        <v>1336</v>
+        <v>1750</v>
       </c>
       <c r="P308" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
       <c r="Q308" s="10" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="R308" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="S308" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="U308" t="s">
-        <v>133</v>
-      </c>
-      <c r="W308" t="s">
-        <v>1487</v>
+        <v>39</v>
       </c>
       <c r="Z308" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="309" spans="2:26" x14ac:dyDescent="0.25">
@@ -24991,52 +24985,52 @@
         <v>4</v>
       </c>
       <c r="F309" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="G309" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="H309" t="s">
-        <v>189</v>
+        <v>1754</v>
       </c>
       <c r="I309" t="s">
-        <v>1528</v>
+        <v>45</v>
       </c>
       <c r="J309" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K309" t="s">
-        <v>1271</v>
+        <v>1755</v>
       </c>
       <c r="L309" t="s">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="M309" t="s">
-        <v>33</v>
+        <v>595</v>
       </c>
       <c r="N309" t="s">
         <v>34</v>
       </c>
       <c r="O309" t="s">
-        <v>1752</v>
-      </c>
-      <c r="P309" t="s">
+        <v>373</v>
+      </c>
+      <c r="P309" s="10" t="s">
         <v>314</v>
       </c>
       <c r="Q309" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="R309" t="s">
+      <c r="R309" s="10" t="s">
         <v>62</v>
       </c>
       <c r="S309" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="U309" t="s">
         <v>39</v>
       </c>
       <c r="Z309" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="2:26" x14ac:dyDescent="0.25">
@@ -25049,46 +25043,46 @@
         <v>4</v>
       </c>
       <c r="F310" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="G310" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="H310" t="s">
-        <v>1756</v>
+        <v>891</v>
       </c>
       <c r="I310" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J310" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="K310" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="L310" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="M310" t="s">
-        <v>595</v>
+        <v>33</v>
       </c>
       <c r="N310" t="s">
         <v>34</v>
       </c>
       <c r="O310" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="P310" s="10" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>315</v>
+        <v>149</v>
       </c>
       <c r="R310" s="10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="S310" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="U310" t="s">
         <v>39</v>
@@ -25107,52 +25101,52 @@
         <v>4</v>
       </c>
       <c r="F311" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="G311" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="H311" t="s">
-        <v>891</v>
+        <v>28</v>
       </c>
       <c r="I311" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J311" t="s">
-        <v>149</v>
+        <v>1672</v>
       </c>
       <c r="K311" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="L311" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="M311" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N311" t="s">
         <v>34</v>
       </c>
       <c r="O311" t="s">
-        <v>212</v>
+        <v>1765</v>
       </c>
       <c r="P311" s="10" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="R311" s="10" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="S311" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="U311" t="s">
         <v>39</v>
       </c>
       <c r="Z311" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="312" spans="2:26" x14ac:dyDescent="0.25">
@@ -25165,52 +25159,52 @@
         <v>4</v>
       </c>
       <c r="F312" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G312" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="H312" t="s">
-        <v>28</v>
+        <v>1768</v>
       </c>
       <c r="I312" t="s">
-        <v>29</v>
+        <v>849</v>
       </c>
       <c r="J312" t="s">
-        <v>1674</v>
+        <v>1769</v>
       </c>
       <c r="K312" t="s">
-        <v>1765</v>
+        <v>494</v>
       </c>
       <c r="L312" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="M312" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="N312" t="s">
         <v>34</v>
       </c>
       <c r="O312" t="s">
-        <v>1767</v>
-      </c>
-      <c r="P312" s="10" t="s">
-        <v>288</v>
+        <v>1771</v>
+      </c>
+      <c r="P312" t="s">
+        <v>386</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="R312" s="10" t="s">
-        <v>62</v>
+        <v>386</v>
+      </c>
+      <c r="R312" t="s">
+        <v>37</v>
       </c>
       <c r="S312" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="U312" t="s">
         <v>39</v>
       </c>
       <c r="Z312" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="2:26" x14ac:dyDescent="0.25">
@@ -25223,52 +25217,52 @@
         <v>4</v>
       </c>
       <c r="F313" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="G313" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="H313" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="I313" t="s">
-        <v>849</v>
+        <v>45</v>
       </c>
       <c r="J313" t="s">
-        <v>1771</v>
+        <v>159</v>
       </c>
       <c r="K313" t="s">
-        <v>494</v>
+        <v>394</v>
       </c>
       <c r="L313" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="M313" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="N313" t="s">
         <v>34</v>
       </c>
       <c r="O313" t="s">
-        <v>1773</v>
+        <v>1093</v>
       </c>
       <c r="P313" t="s">
-        <v>386</v>
+        <v>1094</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="R313" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="S313" t="s">
-        <v>1753</v>
+        <v>1776</v>
       </c>
       <c r="U313" t="s">
         <v>39</v>
       </c>
       <c r="Z313" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="314" spans="2:26" x14ac:dyDescent="0.25">
@@ -25281,13 +25275,13 @@
         <v>4</v>
       </c>
       <c r="F314" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="G314" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="H314" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="I314" t="s">
         <v>45</v>
@@ -25296,10 +25290,10 @@
         <v>159</v>
       </c>
       <c r="K314" t="s">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="L314" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="M314" t="s">
         <v>33</v>
@@ -25308,19 +25302,19 @@
         <v>34</v>
       </c>
       <c r="O314" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P314" t="s">
-        <v>1094</v>
+        <v>205</v>
+      </c>
+      <c r="P314" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="R314" t="s">
-        <v>62</v>
+        <v>159</v>
+      </c>
+      <c r="R314" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S314" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="U314" t="s">
         <v>39</v>
@@ -25339,25 +25333,25 @@
         <v>4</v>
       </c>
       <c r="F315" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="G315" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="H315" t="s">
-        <v>1781</v>
+        <v>1135</v>
       </c>
       <c r="I315" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J315" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="K315" t="s">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="L315" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="M315" t="s">
         <v>33</v>
@@ -25366,19 +25360,19 @@
         <v>34</v>
       </c>
       <c r="O315" t="s">
-        <v>205</v>
+        <v>588</v>
       </c>
       <c r="P315" s="10" t="s">
-        <v>164</v>
+        <v>589</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>159</v>
+        <v>589</v>
       </c>
       <c r="R315" s="10" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="S315" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="U315" t="s">
         <v>39</v>
@@ -25397,52 +25391,52 @@
         <v>4</v>
       </c>
       <c r="F316" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="G316" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H316" t="s">
-        <v>1135</v>
+        <v>1787</v>
       </c>
       <c r="I316" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="J316" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K316" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="L316" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="M316" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N316" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O316" t="s">
-        <v>588</v>
-      </c>
-      <c r="P316" s="10" t="s">
-        <v>589</v>
+        <v>1750</v>
+      </c>
+      <c r="P316" t="s">
+        <v>314</v>
       </c>
       <c r="Q316" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="R316" s="10" t="s">
-        <v>89</v>
+        <v>315</v>
+      </c>
+      <c r="R316" t="s">
+        <v>62</v>
       </c>
       <c r="S316" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="U316" t="s">
         <v>39</v>
       </c>
       <c r="Z316" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="2:26" x14ac:dyDescent="0.25">
@@ -25452,55 +25446,55 @@
       </c>
       <c r="C317">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F317" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G317" t="s">
-        <v>1788</v>
-      </c>
-      <c r="H317" t="s">
+        <v>2</v>
+      </c>
+      <c r="F317" s="10" t="s">
         <v>1789</v>
       </c>
-      <c r="I317" t="s">
-        <v>401</v>
-      </c>
-      <c r="J317" t="s">
-        <v>77</v>
-      </c>
-      <c r="K317" t="s">
-        <v>402</v>
-      </c>
-      <c r="L317" t="s">
+      <c r="G317" s="10" t="s">
         <v>1790</v>
       </c>
-      <c r="M317" t="s">
-        <v>59</v>
-      </c>
-      <c r="N317" t="s">
-        <v>142</v>
-      </c>
-      <c r="O317" t="s">
-        <v>1752</v>
-      </c>
-      <c r="P317" t="s">
-        <v>314</v>
+      <c r="H317" s="10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I317" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J317" s="10" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K317" s="10" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L317" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="M317" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N317" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O317" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="P317" s="10" t="s">
+        <v>1283</v>
       </c>
       <c r="Q317" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="R317" t="s">
-        <v>62</v>
-      </c>
-      <c r="S317" t="s">
-        <v>1783</v>
-      </c>
-      <c r="U317" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z317" t="s">
-        <v>41</v>
+        <v>754</v>
+      </c>
+      <c r="R317" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="S317" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="U317" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z317" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="318" spans="2:26" x14ac:dyDescent="0.25">
@@ -25513,34 +25507,34 @@
         <v>2</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="G318" s="10" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="H318" s="10" t="s">
-        <v>1582</v>
+        <v>1135</v>
       </c>
       <c r="I318" s="10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J318" s="10" t="s">
-        <v>1793</v>
+        <v>483</v>
       </c>
       <c r="K318" s="10" t="s">
-        <v>1794</v>
+        <v>1485</v>
       </c>
       <c r="L318" s="10" t="s">
-        <v>600</v>
+        <v>1796</v>
       </c>
       <c r="M318" s="10" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="N318" s="10" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O318" s="10" t="s">
-        <v>1795</v>
+        <v>1637</v>
       </c>
       <c r="P318" s="10" t="s">
         <v>1283</v>
@@ -25558,7 +25552,7 @@
         <v>39</v>
       </c>
       <c r="Z318" s="10" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="2:26" x14ac:dyDescent="0.25">
@@ -25571,10 +25565,10 @@
         <v>2</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H319" s="10" t="s">
         <v>1135</v>
@@ -25589,7 +25583,7 @@
         <v>1485</v>
       </c>
       <c r="L319" s="10" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="M319" s="10" t="s">
         <v>152</v>
@@ -25598,7 +25592,7 @@
         <v>142</v>
       </c>
       <c r="O319" s="10" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="P319" s="10" t="s">
         <v>1283</v>
@@ -25626,37 +25620,37 @@
       </c>
       <c r="C320">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F320" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F320" t="s">
         <v>1799</v>
       </c>
-      <c r="G320" s="10" t="s">
+      <c r="G320" t="s">
         <v>1800</v>
       </c>
-      <c r="H320" s="10" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I320" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J320" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K320" s="10" t="s">
-        <v>1485</v>
-      </c>
-      <c r="L320" s="10" t="s">
-        <v>1798</v>
-      </c>
-      <c r="M320" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="N320" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="O320" s="10" t="s">
-        <v>1639</v>
+      <c r="H320" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I320" t="s">
+        <v>45</v>
+      </c>
+      <c r="J320" t="s">
+        <v>84</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L320" t="s">
+        <v>1803</v>
+      </c>
+      <c r="M320" t="s">
+        <v>33</v>
+      </c>
+      <c r="N320" t="s">
+        <v>34</v>
+      </c>
+      <c r="O320" t="s">
+        <v>1637</v>
       </c>
       <c r="P320" s="10" t="s">
         <v>1283</v>
@@ -25667,13 +25661,13 @@
       <c r="R320" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="S320" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="U320" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z320" s="10" t="s">
+      <c r="S320" t="s">
+        <v>1066</v>
+      </c>
+      <c r="U320" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z320" t="s">
         <v>41</v>
       </c>
     </row>
@@ -25687,42 +25681,42 @@
         <v>3</v>
       </c>
       <c r="F321" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="G321" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="H321" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="I321" t="s">
         <v>45</v>
       </c>
       <c r="J321" t="s">
-        <v>84</v>
+        <v>483</v>
       </c>
       <c r="K321" t="s">
-        <v>1804</v>
+        <v>1485</v>
       </c>
       <c r="L321" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="M321" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="N321" t="s">
         <v>34</v>
       </c>
       <c r="O321" t="s">
-        <v>1639</v>
-      </c>
-      <c r="P321" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P321" t="s">
         <v>1283</v>
       </c>
       <c r="Q321" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="R321" s="10" t="s">
+      <c r="R321" t="s">
         <v>755</v>
       </c>
       <c r="S321" t="s">
@@ -25737,21 +25731,21 @@
     </row>
     <row r="322" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B322">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B322:B350" si="10">YEAR(S322)</f>
         <v>2025</v>
       </c>
       <c r="C322">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C322:C326" si="11">MONTH(S322)</f>
         <v>3</v>
       </c>
       <c r="F322" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="G322" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="H322" t="s">
-        <v>1808</v>
+        <v>952</v>
       </c>
       <c r="I322" t="s">
         <v>45</v>
@@ -25763,7 +25757,7 @@
         <v>1485</v>
       </c>
       <c r="L322" t="s">
-        <v>1809</v>
+        <v>1198</v>
       </c>
       <c r="M322" t="s">
         <v>162</v>
@@ -25784,7 +25778,7 @@
         <v>755</v>
       </c>
       <c r="S322" t="s">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="U322" t="s">
         <v>39</v>
@@ -25795,11 +25789,11 @@
     </row>
     <row r="323" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B323">
-        <f t="shared" ref="B323:B351" si="10">YEAR(S323)</f>
+        <f t="shared" si="10"/>
         <v>2025</v>
       </c>
       <c r="C323">
-        <f t="shared" ref="C323:C327" si="11">MONTH(S323)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="F323" t="s">
@@ -25809,22 +25803,22 @@
         <v>1811</v>
       </c>
       <c r="H323" t="s">
-        <v>952</v>
+        <v>1812</v>
       </c>
       <c r="I323" t="s">
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="J323" t="s">
         <v>483</v>
       </c>
       <c r="K323" t="s">
-        <v>1485</v>
+        <v>484</v>
       </c>
       <c r="L323" t="s">
-        <v>1198</v>
+        <v>1813</v>
       </c>
       <c r="M323" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="N323" t="s">
         <v>34</v>
@@ -25842,7 +25836,7 @@
         <v>755</v>
       </c>
       <c r="S323" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="U323" t="s">
         <v>39</v>
@@ -25861,25 +25855,25 @@
         <v>3</v>
       </c>
       <c r="F324" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H324" t="s">
         <v>1812</v>
       </c>
-      <c r="G324" t="s">
-        <v>1813</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1814</v>
-      </c>
       <c r="I324" t="s">
-        <v>750</v>
+        <v>45</v>
       </c>
       <c r="J324" t="s">
         <v>483</v>
       </c>
       <c r="K324" t="s">
-        <v>484</v>
+        <v>1485</v>
       </c>
       <c r="L324" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="M324" t="s">
         <v>152</v>
@@ -25888,25 +25882,25 @@
         <v>34</v>
       </c>
       <c r="O324" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P324" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P324" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="Q324" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="R324" t="s">
+      <c r="R324" s="10" t="s">
         <v>755</v>
       </c>
       <c r="S324" t="s">
-        <v>1125</v>
+        <v>1305</v>
       </c>
       <c r="U324" t="s">
         <v>39</v>
       </c>
       <c r="Z324" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="325" spans="2:26" x14ac:dyDescent="0.25">
@@ -25919,52 +25913,52 @@
         <v>3</v>
       </c>
       <c r="F325" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G325" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="H325" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="I325" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="J325" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="K325" t="s">
-        <v>1485</v>
+        <v>668</v>
       </c>
       <c r="L325" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="M325" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="N325" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O325" t="s">
-        <v>1639</v>
-      </c>
-      <c r="P325" s="10" t="s">
+        <v>1821</v>
+      </c>
+      <c r="P325" t="s">
         <v>1283</v>
       </c>
       <c r="Q325" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="R325" s="10" t="s">
+      <c r="R325" t="s">
         <v>755</v>
       </c>
       <c r="S325" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="U325" t="s">
         <v>39</v>
       </c>
       <c r="Z325" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" spans="2:26" x14ac:dyDescent="0.25">
@@ -25977,25 +25971,25 @@
         <v>3</v>
       </c>
       <c r="F326" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="G326" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="H326" t="s">
-        <v>1821</v>
+        <v>1539</v>
       </c>
       <c r="I326" t="s">
         <v>443</v>
       </c>
       <c r="J326" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="K326" t="s">
-        <v>668</v>
+        <v>484</v>
       </c>
       <c r="L326" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="M326" t="s">
         <v>340</v>
@@ -26004,19 +25998,19 @@
         <v>142</v>
       </c>
       <c r="O326" t="s">
-        <v>1823</v>
-      </c>
-      <c r="P326" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P326" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="Q326" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="R326" t="s">
+      <c r="R326" s="10" t="s">
         <v>755</v>
       </c>
       <c r="S326" t="s">
-        <v>1319</v>
+        <v>1384</v>
       </c>
       <c r="U326" t="s">
         <v>39</v>
@@ -26031,50 +26025,46 @@
         <v>2025</v>
       </c>
       <c r="C327">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F327" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G327" t="s">
         <v>1825</v>
       </c>
       <c r="H327" t="s">
-        <v>1539</v>
+        <v>779</v>
       </c>
       <c r="I327" t="s">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="J327" t="s">
-        <v>483</v>
+        <v>780</v>
       </c>
       <c r="K327" t="s">
-        <v>484</v>
+        <v>781</v>
       </c>
       <c r="L327" t="s">
-        <v>1826</v>
+        <v>782</v>
       </c>
       <c r="M327" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="N327" t="s">
         <v>142</v>
       </c>
       <c r="O327" t="s">
-        <v>1639</v>
-      </c>
-      <c r="P327" s="10" t="s">
-        <v>1283</v>
-      </c>
-      <c r="Q327" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="R327" s="10" t="s">
-        <v>755</v>
+        <v>783</v>
+      </c>
+      <c r="P327" t="s">
+        <v>1826</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>159</v>
+      </c>
+      <c r="R327" t="s">
+        <v>37</v>
       </c>
       <c r="S327" t="s">
-        <v>1384</v>
+        <v>785</v>
       </c>
       <c r="U327" t="s">
         <v>39</v>
@@ -26095,10 +26085,10 @@
         <v>1827</v>
       </c>
       <c r="H328" t="s">
-        <v>779</v>
+        <v>1034</v>
       </c>
       <c r="I328" t="s">
-        <v>138</v>
+        <v>1035</v>
       </c>
       <c r="J328" t="s">
         <v>780</v>
@@ -26107,19 +26097,19 @@
         <v>781</v>
       </c>
       <c r="L328" t="s">
-        <v>782</v>
+        <v>455</v>
       </c>
       <c r="M328" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="N328" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O328" t="s">
         <v>783</v>
       </c>
       <c r="P328" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="Q328" t="s">
         <v>159</v>
@@ -26128,7 +26118,7 @@
         <v>37</v>
       </c>
       <c r="S328" t="s">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="U328" t="s">
         <v>39</v>
@@ -26143,16 +26133,16 @@
         <v>2025</v>
       </c>
       <c r="C329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F329" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H329" t="s">
-        <v>1034</v>
+        <v>1155</v>
       </c>
       <c r="I329" t="s">
-        <v>1035</v>
+        <v>29</v>
       </c>
       <c r="J329" t="s">
         <v>780</v>
@@ -26161,7 +26151,7 @@
         <v>781</v>
       </c>
       <c r="L329" t="s">
-        <v>455</v>
+        <v>1156</v>
       </c>
       <c r="M329" t="s">
         <v>152</v>
@@ -26173,7 +26163,7 @@
         <v>783</v>
       </c>
       <c r="P329" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="Q329" t="s">
         <v>159</v>
@@ -26182,7 +26172,7 @@
         <v>37</v>
       </c>
       <c r="S329" t="s">
-        <v>810</v>
+        <v>1157</v>
       </c>
       <c r="U329" t="s">
         <v>39</v>
@@ -26200,10 +26190,10 @@
         <v>3</v>
       </c>
       <c r="F330" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H330" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="I330" t="s">
         <v>29</v>
@@ -26227,7 +26217,7 @@
         <v>783</v>
       </c>
       <c r="P330" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="Q330" t="s">
         <v>159</v>
@@ -26251,46 +26241,46 @@
         <v>2025</v>
       </c>
       <c r="C331">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F331" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H331" t="s">
         <v>1831</v>
       </c>
-      <c r="H331" t="s">
-        <v>1160</v>
-      </c>
       <c r="I331" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J331" t="s">
-        <v>780</v>
+        <v>1832</v>
       </c>
       <c r="K331" t="s">
-        <v>781</v>
+        <v>1833</v>
       </c>
       <c r="L331" t="s">
-        <v>1156</v>
+        <v>1834</v>
       </c>
       <c r="M331" t="s">
         <v>152</v>
       </c>
       <c r="N331" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O331" t="s">
-        <v>783</v>
+        <v>525</v>
       </c>
       <c r="P331" t="s">
-        <v>1828</v>
+        <v>526</v>
       </c>
       <c r="Q331" t="s">
-        <v>159</v>
+        <v>526</v>
       </c>
       <c r="R331" t="s">
         <v>37</v>
       </c>
       <c r="S331" t="s">
-        <v>1157</v>
+        <v>1546</v>
       </c>
       <c r="U331" t="s">
         <v>39</v>
@@ -26308,49 +26298,49 @@
         <v>4</v>
       </c>
       <c r="F332" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="H332" t="s">
-        <v>1833</v>
+        <v>1573</v>
       </c>
       <c r="I332" t="s">
         <v>45</v>
       </c>
       <c r="J332" t="s">
-        <v>1834</v>
+        <v>780</v>
       </c>
       <c r="K332" t="s">
-        <v>1835</v>
+        <v>1574</v>
       </c>
       <c r="L332" t="s">
-        <v>1836</v>
+        <v>257</v>
       </c>
       <c r="M332" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N332" t="s">
         <v>142</v>
       </c>
       <c r="O332" t="s">
-        <v>525</v>
+        <v>1093</v>
       </c>
       <c r="P332" t="s">
-        <v>526</v>
+        <v>1094</v>
       </c>
       <c r="Q332" t="s">
-        <v>526</v>
+        <v>315</v>
       </c>
       <c r="R332" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="S332" t="s">
-        <v>1546</v>
+        <v>1569</v>
       </c>
       <c r="U332" t="s">
         <v>39</v>
       </c>
       <c r="Z332" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="333" spans="2:26" x14ac:dyDescent="0.25">
@@ -26362,49 +26352,49 @@
         <v>4</v>
       </c>
       <c r="F333" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H333" t="s">
         <v>1837</v>
       </c>
-      <c r="H333" t="s">
-        <v>1575</v>
-      </c>
       <c r="I333" t="s">
-        <v>45</v>
+        <v>1838</v>
       </c>
       <c r="J333" t="s">
-        <v>780</v>
+        <v>1839</v>
       </c>
       <c r="K333" t="s">
-        <v>1576</v>
+        <v>1840</v>
       </c>
       <c r="L333" t="s">
-        <v>257</v>
+        <v>1841</v>
       </c>
       <c r="M333" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="N333" t="s">
         <v>142</v>
       </c>
       <c r="O333" t="s">
-        <v>1093</v>
+        <v>525</v>
       </c>
       <c r="P333" t="s">
-        <v>1094</v>
+        <v>526</v>
       </c>
       <c r="Q333" t="s">
-        <v>315</v>
+        <v>526</v>
       </c>
       <c r="R333" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="S333" t="s">
-        <v>1569</v>
+        <v>1662</v>
       </c>
       <c r="U333" t="s">
         <v>39</v>
       </c>
       <c r="Z333" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="334" spans="2:26" x14ac:dyDescent="0.25">
@@ -26416,43 +26406,43 @@
         <v>4</v>
       </c>
       <c r="F334" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="H334" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="I334" t="s">
-        <v>1840</v>
+        <v>459</v>
       </c>
       <c r="J334" t="s">
-        <v>1841</v>
+        <v>483</v>
       </c>
       <c r="K334" t="s">
-        <v>1842</v>
+        <v>1280</v>
       </c>
       <c r="L334" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="M334" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="N334" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O334" t="s">
-        <v>525</v>
+        <v>1637</v>
       </c>
       <c r="P334" t="s">
-        <v>526</v>
+        <v>1283</v>
       </c>
       <c r="Q334" t="s">
-        <v>526</v>
+        <v>754</v>
       </c>
       <c r="R334" t="s">
-        <v>37</v>
+        <v>755</v>
       </c>
       <c r="S334" t="s">
-        <v>1664</v>
+        <v>1715</v>
       </c>
       <c r="U334" t="s">
         <v>39</v>
@@ -26470,22 +26460,22 @@
         <v>4</v>
       </c>
       <c r="F335" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H335" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="I335" t="s">
-        <v>459</v>
+        <v>45</v>
       </c>
       <c r="J335" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="K335" t="s">
-        <v>1280</v>
+        <v>645</v>
       </c>
       <c r="L335" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="M335" t="s">
         <v>33</v>
@@ -26494,25 +26484,25 @@
         <v>34</v>
       </c>
       <c r="O335" t="s">
-        <v>1639</v>
+        <v>588</v>
       </c>
       <c r="P335" t="s">
-        <v>1283</v>
+        <v>589</v>
       </c>
       <c r="Q335" t="s">
-        <v>754</v>
+        <v>1848</v>
       </c>
       <c r="R335" t="s">
-        <v>755</v>
+        <v>89</v>
       </c>
       <c r="S335" t="s">
-        <v>1717</v>
+        <v>1781</v>
       </c>
       <c r="U335" t="s">
         <v>39</v>
       </c>
       <c r="Z335" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="2:26" x14ac:dyDescent="0.25">
@@ -26524,22 +26514,22 @@
         <v>4</v>
       </c>
       <c r="F336" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="H336" t="s">
-        <v>1848</v>
+        <v>1149</v>
       </c>
       <c r="I336" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J336" t="s">
-        <v>561</v>
+        <v>149</v>
       </c>
       <c r="K336" t="s">
-        <v>645</v>
+        <v>1850</v>
       </c>
       <c r="L336" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="M336" t="s">
         <v>33</v>
@@ -26548,25 +26538,25 @@
         <v>34</v>
       </c>
       <c r="O336" t="s">
-        <v>588</v>
+        <v>153</v>
       </c>
       <c r="P336" t="s">
-        <v>589</v>
+        <v>149</v>
       </c>
       <c r="Q336" t="s">
-        <v>1850</v>
+        <v>149</v>
       </c>
       <c r="R336" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="S336" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="U336" t="s">
         <v>39</v>
       </c>
       <c r="Z336" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" spans="2:26" x14ac:dyDescent="0.25">
@@ -26578,22 +26568,22 @@
         <v>4</v>
       </c>
       <c r="F337" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="H337" t="s">
-        <v>1149</v>
+        <v>830</v>
       </c>
       <c r="I337" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="J337" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="K337" t="s">
-        <v>1852</v>
+        <v>1271</v>
       </c>
       <c r="L337" t="s">
-        <v>1853</v>
+        <v>1272</v>
       </c>
       <c r="M337" t="s">
         <v>33</v>
@@ -26602,25 +26592,25 @@
         <v>34</v>
       </c>
       <c r="O337" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="P337" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Q337" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="R337" t="s">
         <v>78</v>
       </c>
       <c r="S337" t="s">
-        <v>1783</v>
+        <v>1853</v>
       </c>
       <c r="U337" t="s">
         <v>39</v>
       </c>
       <c r="Z337" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="338" spans="2:26" x14ac:dyDescent="0.25">
@@ -26635,19 +26625,19 @@
         <v>1854</v>
       </c>
       <c r="H338" t="s">
-        <v>830</v>
+        <v>1855</v>
       </c>
       <c r="I338" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="J338" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K338" t="s">
-        <v>1271</v>
+        <v>74</v>
       </c>
       <c r="L338" t="s">
-        <v>1272</v>
+        <v>1856</v>
       </c>
       <c r="M338" t="s">
         <v>33</v>
@@ -26656,25 +26646,25 @@
         <v>34</v>
       </c>
       <c r="O338" t="s">
-        <v>277</v>
+        <v>1857</v>
       </c>
       <c r="P338" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q338" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R338" t="s">
         <v>78</v>
       </c>
       <c r="S338" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U338" t="s">
         <v>39</v>
       </c>
       <c r="Z338" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="339" spans="2:26" x14ac:dyDescent="0.25">
@@ -26686,31 +26676,31 @@
         <v>4</v>
       </c>
       <c r="F339" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="H339" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="I339" t="s">
-        <v>72</v>
+        <v>459</v>
       </c>
       <c r="J339" t="s">
         <v>73</v>
       </c>
       <c r="K339" t="s">
-        <v>74</v>
+        <v>1589</v>
       </c>
       <c r="L339" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="M339" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N339" t="s">
         <v>34</v>
       </c>
       <c r="O339" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="P339" t="s">
         <v>73</v>
@@ -26722,7 +26712,7 @@
         <v>78</v>
       </c>
       <c r="S339" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U339" t="s">
         <v>39</v>
@@ -26740,10 +26730,10 @@
         <v>4</v>
       </c>
       <c r="F340" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="H340" t="s">
-        <v>1861</v>
+        <v>1640</v>
       </c>
       <c r="I340" t="s">
         <v>459</v>
@@ -26752,7 +26742,7 @@
         <v>73</v>
       </c>
       <c r="K340" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="L340" t="s">
         <v>1862</v>
@@ -26764,7 +26754,7 @@
         <v>34</v>
       </c>
       <c r="O340" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="P340" t="s">
         <v>73</v>
@@ -26776,7 +26766,7 @@
         <v>78</v>
       </c>
       <c r="S340" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U340" t="s">
         <v>39</v>
@@ -26797,43 +26787,43 @@
         <v>1863</v>
       </c>
       <c r="H341" t="s">
-        <v>1642</v>
+        <v>1229</v>
       </c>
       <c r="I341" t="s">
-        <v>459</v>
+        <v>929</v>
       </c>
       <c r="J341" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="K341" t="s">
-        <v>1591</v>
+        <v>1063</v>
       </c>
       <c r="L341" t="s">
         <v>1864</v>
       </c>
       <c r="M341" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N341" t="s">
         <v>34</v>
       </c>
       <c r="O341" t="s">
-        <v>1859</v>
+        <v>971</v>
       </c>
       <c r="P341" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="Q341" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="R341" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S341" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U341" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="Z341" t="s">
         <v>41</v>
@@ -26851,19 +26841,19 @@
         <v>1865</v>
       </c>
       <c r="H342" t="s">
-        <v>1229</v>
+        <v>1843</v>
       </c>
       <c r="I342" t="s">
-        <v>929</v>
+        <v>459</v>
       </c>
       <c r="J342" t="s">
-        <v>111</v>
+        <v>483</v>
       </c>
       <c r="K342" t="s">
-        <v>1063</v>
+        <v>1280</v>
       </c>
       <c r="L342" t="s">
-        <v>1866</v>
+        <v>1844</v>
       </c>
       <c r="M342" t="s">
         <v>33</v>
@@ -26872,22 +26862,22 @@
         <v>34</v>
       </c>
       <c r="O342" t="s">
-        <v>971</v>
+        <v>1637</v>
       </c>
       <c r="P342" t="s">
-        <v>112</v>
+        <v>1283</v>
       </c>
       <c r="Q342" t="s">
-        <v>112</v>
+        <v>754</v>
       </c>
       <c r="R342" t="s">
-        <v>37</v>
+        <v>755</v>
       </c>
       <c r="S342" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U342" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="Z342" t="s">
         <v>41</v>
@@ -26902,10 +26892,10 @@
         <v>4</v>
       </c>
       <c r="F343" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H343" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="I343" t="s">
         <v>459</v>
@@ -26917,7 +26907,7 @@
         <v>1280</v>
       </c>
       <c r="L343" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="M343" t="s">
         <v>33</v>
@@ -26926,7 +26916,7 @@
         <v>34</v>
       </c>
       <c r="O343" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="P343" t="s">
         <v>1283</v>
@@ -26938,7 +26928,7 @@
         <v>755</v>
       </c>
       <c r="S343" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U343" t="s">
         <v>39</v>
@@ -26956,49 +26946,49 @@
         <v>4</v>
       </c>
       <c r="F344" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H344" t="s">
         <v>1868</v>
       </c>
-      <c r="H344" t="s">
-        <v>1845</v>
-      </c>
       <c r="I344" t="s">
-        <v>459</v>
+        <v>921</v>
       </c>
       <c r="J344" t="s">
-        <v>483</v>
+        <v>1869</v>
       </c>
       <c r="K344" t="s">
-        <v>1280</v>
+        <v>1870</v>
       </c>
       <c r="L344" t="s">
-        <v>1846</v>
+        <v>1871</v>
       </c>
       <c r="M344" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="N344" t="s">
         <v>34</v>
       </c>
       <c r="O344" t="s">
-        <v>1639</v>
+        <v>1872</v>
       </c>
       <c r="P344" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="Q344" t="s">
-        <v>754</v>
+        <v>870</v>
       </c>
       <c r="R344" t="s">
-        <v>755</v>
+        <v>62</v>
       </c>
       <c r="S344" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="U344" t="s">
         <v>39</v>
       </c>
       <c r="Z344" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="2:26" x14ac:dyDescent="0.25">
@@ -27010,49 +27000,49 @@
         <v>4</v>
       </c>
       <c r="F345" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="H345" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="I345" t="s">
-        <v>921</v>
+        <v>72</v>
       </c>
       <c r="J345" t="s">
-        <v>1871</v>
+        <v>483</v>
       </c>
       <c r="K345" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="L345" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="M345" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="N345" t="s">
         <v>34</v>
       </c>
       <c r="O345" t="s">
-        <v>1874</v>
+        <v>1282</v>
       </c>
       <c r="P345" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="Q345" t="s">
-        <v>870</v>
+        <v>754</v>
       </c>
       <c r="R345" t="s">
-        <v>62</v>
+        <v>755</v>
       </c>
       <c r="S345" t="s">
-        <v>1855</v>
+        <v>1877</v>
       </c>
       <c r="U345" t="s">
         <v>39</v>
       </c>
       <c r="Z345" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346" spans="2:26" x14ac:dyDescent="0.25">
@@ -27064,43 +27054,43 @@
         <v>4</v>
       </c>
       <c r="F346" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="H346" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="I346" t="s">
         <v>72</v>
       </c>
       <c r="J346" t="s">
-        <v>483</v>
+        <v>850</v>
       </c>
       <c r="K346" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="L346" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="M346" t="s">
         <v>33</v>
       </c>
       <c r="N346" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O346" t="s">
-        <v>1282</v>
+        <v>212</v>
       </c>
       <c r="P346" t="s">
-        <v>1283</v>
+        <v>149</v>
       </c>
       <c r="Q346" t="s">
-        <v>754</v>
+        <v>149</v>
       </c>
       <c r="R346" t="s">
-        <v>755</v>
+        <v>78</v>
       </c>
       <c r="S346" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="U346" t="s">
         <v>39</v>
@@ -27118,49 +27108,49 @@
         <v>4</v>
       </c>
       <c r="F347" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="H347" t="s">
-        <v>1870</v>
+        <v>1882</v>
       </c>
       <c r="I347" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J347" t="s">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="K347" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L347" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="M347" t="s">
         <v>33</v>
       </c>
       <c r="N347" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O347" t="s">
-        <v>212</v>
+        <v>1885</v>
       </c>
       <c r="P347" t="s">
-        <v>149</v>
+        <v>412</v>
       </c>
       <c r="Q347" t="s">
-        <v>149</v>
+        <v>413</v>
       </c>
       <c r="R347" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S347" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="U347" t="s">
         <v>39</v>
       </c>
       <c r="Z347" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="348" spans="2:26" x14ac:dyDescent="0.25">
@@ -27172,22 +27162,22 @@
         <v>4</v>
       </c>
       <c r="F348" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="H348" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="I348" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J348" t="s">
-        <v>310</v>
+        <v>98</v>
       </c>
       <c r="K348" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="L348" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="M348" t="s">
         <v>33</v>
@@ -27196,19 +27186,19 @@
         <v>34</v>
       </c>
       <c r="O348" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="P348" t="s">
-        <v>412</v>
+        <v>98</v>
       </c>
       <c r="Q348" t="s">
-        <v>413</v>
+        <v>98</v>
       </c>
       <c r="R348" t="s">
         <v>37</v>
       </c>
       <c r="S348" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="U348" t="s">
         <v>39</v>
@@ -27226,49 +27216,49 @@
         <v>4</v>
       </c>
       <c r="F349" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="H349" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="I349" t="s">
-        <v>72</v>
+        <v>885</v>
       </c>
       <c r="J349" t="s">
-        <v>98</v>
+        <v>1893</v>
       </c>
       <c r="K349" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="L349" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="M349" t="s">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="N349" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="O349" t="s">
-        <v>1892</v>
+        <v>35</v>
       </c>
       <c r="P349" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="Q349" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="R349" t="s">
         <v>37</v>
       </c>
       <c r="S349" t="s">
-        <v>1879</v>
+        <v>1896</v>
       </c>
       <c r="U349" t="s">
         <v>39</v>
       </c>
       <c r="Z349" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="2:26" x14ac:dyDescent="0.25">
@@ -27280,22 +27270,22 @@
         <v>4</v>
       </c>
       <c r="F350" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="H350" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="I350" t="s">
         <v>885</v>
       </c>
       <c r="J350" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L350" t="s">
         <v>1895</v>
-      </c>
-      <c r="K350" t="s">
-        <v>1896</v>
-      </c>
-      <c r="L350" t="s">
-        <v>1897</v>
       </c>
       <c r="M350" t="s">
         <v>340</v>
@@ -27316,7 +27306,7 @@
         <v>37</v>
       </c>
       <c r="S350" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="U350" t="s">
         <v>39</v>
@@ -27325,62 +27315,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B351">
-        <f t="shared" si="10"/>
-        <v>2025</v>
-      </c>
-      <c r="C351">
-        <v>4</v>
-      </c>
-      <c r="F351" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H351" t="s">
-        <v>1900</v>
-      </c>
-      <c r="I351" t="s">
-        <v>885</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1895</v>
-      </c>
-      <c r="K351" t="s">
-        <v>1896</v>
-      </c>
-      <c r="L351" t="s">
-        <v>1897</v>
-      </c>
-      <c r="M351" t="s">
-        <v>340</v>
-      </c>
-      <c r="N351" t="s">
-        <v>172</v>
-      </c>
-      <c r="O351" t="s">
-        <v>35</v>
-      </c>
-      <c r="P351" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q351" t="s">
-        <v>36</v>
-      </c>
-      <c r="R351" t="s">
-        <v>37</v>
-      </c>
-      <c r="S351" t="s">
-        <v>1898</v>
-      </c>
-      <c r="U351" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z351" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{B5C4B36F-592F-4EDD-9D58-1421084A8719}"/>
+  <autoFilter ref="A1:Z350" xr:uid="{B5C4B36F-592F-4EDD-9D58-1421084A8719}"/>
   <mergeCells count="1">
     <mergeCell ref="W6:Y6"/>
   </mergeCells>
